--- a/Funktionstests.xlsx
+++ b/Funktionstests.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Funktionstests</t>
   </si>
@@ -45,19 +45,67 @@
     <t>Nullpunkterkennung</t>
   </si>
   <si>
-    <t>Mapping</t>
-  </si>
-  <si>
     <t>Mechanik</t>
   </si>
   <si>
     <t>Drehübertragung</t>
   </si>
   <si>
-    <t>Datenübermittlung</t>
-  </si>
-  <si>
     <t>Testablauf</t>
+  </si>
+  <si>
+    <t>nicht bestanden</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Datenkomunikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenübermittlung von Veldoyne zu Laptop/RPI  über Drehübertragung </t>
+  </si>
+  <si>
+    <t>SSH von Velodyne zu RPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positionsbestimmung wird durch inkrementelle Winkeländerung erreicht </t>
+  </si>
+  <si>
+    <t>Nullpunkterkennung während einer Umdrehung</t>
+  </si>
+  <si>
+    <t>Datenverarbeitung</t>
+  </si>
+  <si>
+    <t>Visualisierung und Aufnahme der Daten auf dem RPI</t>
+  </si>
+  <si>
+    <t>Das Raspbery Pi wird über SSH vom Laptop fremdgesteuert</t>
+  </si>
+  <si>
+    <t>Packages wird vollständig auf dem Raspberry Pi ausgeführt und die Daten visualisiert</t>
+  </si>
+  <si>
+    <t>Mittels der RPI Anstu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aufnahme elektrischen Eckdaten und Kontrolle von Speisungen</t>
+  </si>
+  <si>
+    <t>Analyse der Verzahnung,</t>
+  </si>
+  <si>
+    <t>Qualität der zusammengefügten Punktwolke und Funktion nach Aufgabenstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messauflösung während einer Umdrehung bewerten. </t>
+  </si>
+  <si>
+    <t>Aufnahme Leistungsverbrauch, Kontrolle der Kabelverbindungen auf Wackel, Defekte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontrolle der mechanischen Komponenten. Toleranzen der Zanhräder. </t>
   </si>
 </sst>
 </file>
@@ -103,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -212,21 +260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -345,11 +378,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,10 +442,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,8 +450,47 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,32 +501,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,13 +542,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>69755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>20967</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>105679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -789,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -800,9 +899,9 @@
     <col min="1" max="1" width="1.69140625" customWidth="1"/>
     <col min="2" max="2" width="23.84375" customWidth="1"/>
     <col min="3" max="3" width="4.765625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="4" max="4" width="34.84375" customWidth="1"/>
     <col min="5" max="5" width="35.53515625" customWidth="1"/>
-    <col min="6" max="6" width="12.69140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="4.15234375" customWidth="1"/>
     <col min="7" max="7" width="21.61328125" customWidth="1"/>
     <col min="8" max="8" width="29.84375" customWidth="1"/>
     <col min="9" max="9" width="13.765625" customWidth="1"/>
@@ -810,39 +909,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="18.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="1"/>
@@ -850,18 +953,22 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="20">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22" t="s">
+      <c r="D4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="29" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="1"/>
@@ -869,160 +976,201 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="20">
         <v>3</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="29" t="s">
+        <v>3</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="D8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="D9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10">
         <v>6</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="C10" s="9">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="9">
+        <v>7</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8">
+      <c r="B12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="20">
         <v>8</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
@@ -1050,17 +1198,20 @@
     </row>
     <row r="20" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
@@ -1083,7 +1234,7 @@
     <row r="30" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1140,15 +1291,26 @@
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
     </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Funktionstests.xlsx
+++ b/Funktionstests.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Funktionstests</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Mechanik</t>
   </si>
   <si>
-    <t>Drehübertragung</t>
-  </si>
-  <si>
     <t>Testablauf</t>
   </si>
   <si>
@@ -63,49 +60,49 @@
     <t>Datenkomunikation</t>
   </si>
   <si>
-    <t xml:space="preserve">Datenübermittlung von Veldoyne zu Laptop/RPI  über Drehübertragung </t>
-  </si>
-  <si>
-    <t>SSH von Velodyne zu RPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positionsbestimmung wird durch inkrementelle Winkeländerung erreicht </t>
-  </si>
-  <si>
-    <t>Nullpunkterkennung während einer Umdrehung</t>
-  </si>
-  <si>
     <t>Datenverarbeitung</t>
   </si>
   <si>
-    <t>Visualisierung und Aufnahme der Daten auf dem RPI</t>
-  </si>
-  <si>
-    <t>Das Raspbery Pi wird über SSH vom Laptop fremdgesteuert</t>
-  </si>
-  <si>
-    <t>Packages wird vollständig auf dem Raspberry Pi ausgeführt und die Daten visualisiert</t>
-  </si>
-  <si>
-    <t>Mittels der RPI Anstu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aufnahme elektrischen Eckdaten und Kontrolle von Speisungen</t>
-  </si>
-  <si>
-    <t>Analyse der Verzahnung,</t>
-  </si>
-  <si>
-    <t>Qualität der zusammengefügten Punktwolke und Funktion nach Aufgabenstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Messauflösung während einer Umdrehung bewerten. </t>
-  </si>
-  <si>
-    <t>Aufnahme Leistungsverbrauch, Kontrolle der Kabelverbindungen auf Wackel, Defekte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontrolle der mechanischen Komponenten. Toleranzen der Zanhräder. </t>
+    <t>Mittels vordefinierten Schritten wird eruiert, ob Schrittverluste entstehen.</t>
+  </si>
+  <si>
+    <t>Es wird die Nullpunkterkennung augetestet. Einerseits als Teilfunktion und im System integriert.</t>
+  </si>
+  <si>
+    <t>Packages wird vollständig auf dem Raspberry Pi ausgeführt und die Punktwolke wird visualisiert.</t>
+  </si>
+  <si>
+    <t>Kontrolle der Drehübertragung bei festen und drehenden Schleifring.</t>
+  </si>
+  <si>
+    <t>Stückweise Zuschalten der Komponenten und Kontrolle der Kabelverbindungen auf Wackel sowie Aufnahme Leistungsverbrauch.</t>
+  </si>
+  <si>
+    <t>Positionsbestimmung wird durch inkrementelle Winkeländerung erreicht.</t>
+  </si>
+  <si>
+    <t>Aufnahme elektrischen Eckdaten und Kontrolle von Speisespannungen bei vollständigem Betrieb.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontrolle der mechanischen Komponenten, Toleranzen ermitteln und Drehfunktion bewerten.  </t>
+  </si>
+  <si>
+    <t>Visualisierung und Aufnahme der Daten auf dem RPI bzw. Laptop.</t>
+  </si>
+  <si>
+    <t>Nullpunkterkennung während einer Umdrehung.</t>
+  </si>
+  <si>
+    <t>Qualität der zusammengefügten Punktwolke und Funktion nach Aufgabenstellung.</t>
+  </si>
+  <si>
+    <t>Es wird die Messauflösung während einer Umdrehung bewerten, dazu die Datengrösse ermittelt.</t>
+  </si>
+  <si>
+    <t>Analyse der Verzahnung, gepresste Übergänge kontrollieren, Verhalten des Kugellagers im Gesamtsystem, Ungenauigkeit des Drehturm.</t>
+  </si>
+  <si>
+    <t>Funktionsfähigkeit der Datenübermittlung vom Veldoyne VLP-16  zu RPI bzw. Laptop  über Schleifring prüfen.</t>
   </si>
 </sst>
 </file>
@@ -151,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -181,26 +178,19 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -218,13 +208,108 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -236,7 +321,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -245,7 +330,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -254,145 +339,13 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -401,18 +354,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -421,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,87 +378,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,13 +436,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>69755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>20967</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>105679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -888,20 +782,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.69140625" customWidth="1"/>
     <col min="2" max="2" width="23.84375" customWidth="1"/>
-    <col min="3" max="3" width="4.765625" customWidth="1"/>
+    <col min="3" max="3" width="3.765625" customWidth="1"/>
     <col min="4" max="4" width="34.84375" customWidth="1"/>
     <col min="5" max="5" width="35.53515625" customWidth="1"/>
-    <col min="6" max="6" width="4.15234375" customWidth="1"/>
+    <col min="6" max="6" width="11.921875" customWidth="1"/>
     <col min="7" max="7" width="21.61328125" customWidth="1"/>
     <col min="8" max="8" width="29.84375" customWidth="1"/>
     <col min="9" max="9" width="13.765625" customWidth="1"/>
@@ -914,263 +808,225 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:11" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="13">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:11" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="29" t="s">
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:11" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="29"/>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:11" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="20">
-        <v>3</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="29" t="s">
-        <v>3</v>
-      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:11" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="29"/>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:11" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>7</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:11" ht="38.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="C9" s="15">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9">
-        <v>6</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="9">
-        <v>7</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="20">
-        <v>8</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
@@ -1180,38 +1036,26 @@
     </row>
     <row r="17" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
@@ -1228,13 +1072,13 @@
     <row r="28" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1285,30 +1129,7 @@
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D12:D13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Funktionstests.xlsx
+++ b/Funktionstests.xlsx
@@ -63,18 +63,9 @@
     <t>Datenverarbeitung</t>
   </si>
   <si>
-    <t>Mittels vordefinierten Schritten wird eruiert, ob Schrittverluste entstehen.</t>
-  </si>
-  <si>
-    <t>Es wird die Nullpunkterkennung augetestet. Einerseits als Teilfunktion und im System integriert.</t>
-  </si>
-  <si>
     <t>Packages wird vollständig auf dem Raspberry Pi ausgeführt und die Punktwolke wird visualisiert.</t>
   </si>
   <si>
-    <t>Kontrolle der Drehübertragung bei festen und drehenden Schleifring.</t>
-  </si>
-  <si>
     <t>Stückweise Zuschalten der Komponenten und Kontrolle der Kabelverbindungen auf Wackel sowie Aufnahme Leistungsverbrauch.</t>
   </si>
   <si>
@@ -96,13 +87,22 @@
     <t>Qualität der zusammengefügten Punktwolke und Funktion nach Aufgabenstellung.</t>
   </si>
   <si>
-    <t>Es wird die Messauflösung während einer Umdrehung bewerten, dazu die Datengrösse ermittelt.</t>
-  </si>
-  <si>
     <t>Analyse der Verzahnung, gepresste Übergänge kontrollieren, Verhalten des Kugellagers im Gesamtsystem, Ungenauigkeit des Drehturm.</t>
   </si>
   <si>
     <t>Funktionsfähigkeit der Datenübermittlung vom Veldoyne VLP-16  zu RPI bzw. Laptop  über Schleifring prüfen.</t>
+  </si>
+  <si>
+    <t>Es wird die Nullpunkterkennung bei verschiedenen Drehgeschwindigkeiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es wird die Messauflösung während einer Umdrehung bewerten, dazu die Datengrösse ermittelt. </t>
+  </si>
+  <si>
+    <t>Mittels vordefinierten Schritten wird eruiert, ob Schrittverluste entstehen. Dabei werden verschiedene Sollschritte bei unterschiedlichen Drehgeschwindigkeiten getestet.</t>
+  </si>
+  <si>
+    <t>Kontrolle der Drehübertragung bei festen und drehenden Schleifring. Dabei werden verschiedene Drehgeschwindigkeiten getestet.</t>
   </si>
 </sst>
 </file>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -832,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>3</v>
@@ -854,10 +854,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>3</v>
@@ -876,10 +876,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>3</v>
@@ -895,13 +895,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>10</v>
@@ -911,19 +911,19 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="38.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="47.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>3</v>
@@ -939,13 +939,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>10</v>
@@ -961,10 +961,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>25</v>
